--- a/Data Collection/Authors/Charles Lewinski/Lewinski_all_2021.xlsx
+++ b/Data Collection/Authors/Charles Lewinski/Lewinski_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Authors\Charles Lewinski\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Charles Lewinski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADFD675-B260-4DB7-B4CE-87E69FDFDED8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB519EA8-FCB5-40BA-B733-599DCC227661}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +126,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,19 +171,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,7 +472,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,29 +529,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Data Collection/Authors/Charles Lewinski/Lewinski_all_2021.xlsx
+++ b/Data Collection/Authors/Charles Lewinski/Lewinski_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Charles Lewinski\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Charles Lewinski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB519EA8-FCB5-40BA-B733-599DCC227661}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BB519EA8-FCB5-40BA-B733-599DCC227661}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{63B78D1E-9E3D-473A-8D30-10516054BA06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>title</t>
   </si>
@@ -36,18 +36,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -57,16 +51,10 @@
     <t>SRF</t>
   </si>
   <si>
-    <t>20 Jan 2021</t>
-  </si>
-  <si>
     <t>SRF?? In der Legende zum Filmbeitrag steht, dass auch „Der Halbbart“ von Charles Lewinski in den Top 20 sei. Doch in der Liste ist er NICHT drin ...</t>
   </si>
   <si>
     <t>https://www.srf.ch/kultur/literatur/buch-jahresbestseller-2020-das-sind-die-beliebtesten-buecher-der-schweiz</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>Wenn Sie nach 10 Minuten kein E-Mail erhalten haben, prüfen Sie bitte Ihren SPAM Ordner und die Angabe Ihrer E-Mail-Adresse.
@@ -76,33 +64,14 @@
 Wenn Sie nach 10 Minuten kein E-Mail erhalten haben, prüfen Sie bitte Ihren SPAM Ordner und die Angabe Ihrer E-Mail-Adresse.</t>
   </si>
   <si>
-    <t>Legendärer Pornoverleger Larry Flynt gestorben</t>
-  </si>
-  <si>
-    <t>Yahoo Nachrichten</t>
-  </si>
-  <si>
-    <t>11 Feb 2021</t>
-  </si>
-  <si>
-    <t>... wegen seiner Affäre mit der Praktikantin Monica Lewinski die Amtsenthebung drohte. ... Trauer um Philip: Prinz Charles verabschiedet sich von seinem Vater.</t>
-  </si>
-  <si>
-    <t>https://de.nachrichten.yahoo.com/medien-legend%C3%A4rer-porno-verleger-larry-232738643.html</t>
-  </si>
-  <si>
-    <t>1996 wurde Flynt in dem Hollywood-Film "Larry Flynt - die nackte Wahrheit" von Milos Forman mit Woody Harrelson in der Hauptrolle ein Denkmal gesetzt.
-Aber so lange ich lebe, werde ich Larry Flynt immer bewundern: sein Leben, seinen Mut und seine Hartnäckigkeit."
-Seitdem saß er von der Hüfte abwärts gelähmt im Rollstuhl.
-Mit 15 Jahren trat er mit einer gefälschten Geburtsurkunde in die Armee ein und blieb dort fünf Jahre.
-1972 brachte Flynt den "Hustler Newsletter" in Umlauf, ein Flugblatt mit expliziten Fotos, mit dem er für seine Stripclubs warb.</t>
+    <t>flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,28 +95,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,27 +127,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,15 +434,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,69 +464,39 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44216</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{EE29905F-F441-44BD-9C4E-25D7A390C239}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{7AB6541A-9861-4BAC-A4BF-5D0D002C7017}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{EE29905F-F441-44BD-9C4E-25D7A390C239}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
